--- a/public/6206_hyunmyung.kim.xlsx
+++ b/public/6206_hyunmyung.kim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet sheetId="135" name="Daily Report" state="visible" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -37,7 +37,7 @@
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>CONTRACT NO</t>
+    <t>CC-155010-00.00</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -52,19 +52,16 @@
     <t xml:space="preserve">START TIME </t>
   </si>
   <si>
-    <t>07:00</t>
+    <t/>
   </si>
   <si>
     <t>WEATHER</t>
   </si>
   <si>
-    <t>Sunny</t>
+    <t>Partly Cloudy</t>
   </si>
   <si>
     <t xml:space="preserve">END TIME </t>
-  </si>
-  <si>
-    <t>17:10</t>
   </si>
   <si>
     <t>CONTRACTOR</t>
@@ -89,37 +86,16 @@
 /Day</t>
   </si>
   <si>
-    <t>AME Builders Inc</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>TEST2</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>TESTS &amp; INSPECTIONS</t>
   </si>
   <si>
-    <t>Test TESTS</t>
-  </si>
-  <si>
     <t>CORRECTIONAL ITEMS</t>
   </si>
   <si>
-    <t>Test CORRECTIONAL</t>
-  </si>
-  <si>
     <t>NOTE</t>
-  </si>
-  <si>
-    <t>Test NOTE</t>
   </si>
 </sst>
 </file>
@@ -159,7 +135,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="8"/>
@@ -707,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -774,12 +750,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1329,7 +1299,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
@@ -1412,323 +1382,299 @@
       <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
+      <c r="M9" s="52"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+    </row>
+    <row r="16" ht="24.75" customHeight="1" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="42">
-        <v>5</v>
-      </c>
-      <c r="D8" s="43">
-        <v>8.5</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="49">
-        <v>2</v>
-      </c>
-      <c r="D9" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="53"/>
-      <c r="M9" s="54"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-    </row>
-    <row r="12" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-    </row>
-    <row r="15" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-    </row>
-    <row r="16" ht="24.75" customHeight="1" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55">
         <f>SUM(C8:C15)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
     </row>
     <row r="17" ht="23.25" customHeight="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
+      <c r="A17" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
+      <c r="A18" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
     </row>
     <row r="22" ht="23.25" customHeight="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
+      <c r="A22" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
+      <c r="A23" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
     </row>
     <row r="27" ht="23.25" customHeight="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
+      <c r="A27" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
+      <c r="A28" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="71"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="77"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1738,7 +1684,7 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1748,7 +1694,7 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1758,7 +1704,7 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1768,7 +1714,7 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1778,7 +1724,7 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
